--- a/resultados/resumo_IC.xlsx
+++ b/resultados/resumo_IC.xlsx
@@ -397,13 +397,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>202</v>
+        <v>318.91</v>
       </c>
       <c r="C3" t="n">
-        <v>168.28</v>
+        <v>265.52</v>
       </c>
       <c r="D3" t="n">
-        <v>235.72</v>
+        <v>372.29</v>
       </c>
     </row>
     <row r="4">
